--- a/Assets/StreamingAssets/2_Training_Canteen_Garden.xlsx
+++ b/Assets/StreamingAssets/2_Training_Canteen_Garden.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A622E9C-366A-6449-B33A-13E09499870F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035F82E1-0277-6541-865A-F3E8607C566A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="500" windowWidth="27960" windowHeight="15960" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
+    <workbookView xWindow="840" yWindow="500" windowWidth="27960" windowHeight="15880" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="96">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,15 +206,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">I’m flattered. I’ve merely glanced through a few books.
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>It is you, sir, who—upon seeing the quiet garden scene—could craft a poem so freely. Now that is true talent.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Dee-Regular</t>
   </si>
   <si>
@@ -226,10 +217,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>If only this manor welcomed more scholars like yourself…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ming-Regular2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,10 +229,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I am Xu Ming.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>appearAt</t>
   </si>
   <si>
@@ -253,22 +236,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I am Di Renjie, and this is my page, Yao Chong.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>We set out from Luoyang and happened to pass through here on our way to Pengze County.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Xu… could you be the young master of the manor?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I’m the son of Master Xu, but not the young master.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ming-Sad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -277,10 +248,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I have no interest in government or waterworks.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>My aspirations lie far from inheriting my father’s post.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -289,10 +256,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Everyone has their own path. But some are born to carry certain responsibilities—there’s no escaping them.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Dee-Thinking2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -305,10 +268,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I once told my father about my dreams. But he… paid them no heed at all!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Why must a son follow exactly in his father’s footsteps?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -325,22 +284,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I understand your frustration—especially when it's your own beloved family that tries to control your fate.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>But Master Xu, as the official in charge of managing the Gong River—</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Is diligent and devoted, working single-handedly for the welfare of the people.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>He is truly a man worthy of admiration.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Perhaps you're right. Maybe I don’t know my father as well as I think.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -361,10 +304,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Xu Ming, what are you doing here?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Fu-Regular</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -373,30 +312,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>This is my friend, Fu Lai.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Fu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I am Fu Lai—just a humble scholar, invited here by the young master to exchange poems and ideas.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Fu-Smile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A pleasure to meet you. I’m Di Renjie, and this is my page, Yao Chong.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I’ve been waiting for you, Master Fu. There are some essays I wanted to discuss.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(The two chatted warmly as they walked off together.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -409,10 +332,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Master, it’s getting late—shall we head back and rest?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yao-Pity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -430,6 +349,74 @@
   </si>
   <si>
     <t>StoryScript3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I’m flattered. I’ve merely glanced through a few books.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am Ming.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ming, what are you doing here?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is my friend, Fu.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am Fu—just a humble scholar, invited here by the young master to exchange poems and ideas.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I’ve been waiting for you, Fu. There are some essays I wanted to discuss.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is you, sir, who——upon seeing the quiet garden scene——could craft a poem so freely. Now that is true talent.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If only this manor welcomed more scholars like yourself......</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am Judge Dee, and this is my student, Yao.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Could you be the Young Lord of the manor?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I’m the son of the Lord, but not the Young Lord.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have no interest in power.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Everyone has their own path. But some are born to carry certain responsibilities——there’s no escaping them.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I once told my father about my dreams. But he paid them no heed at all!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I understand your frustration——especially when it's your own beloved family that tries to control your fate.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A pleasure to meet you. I’m Judge Dee, and this is my student, Yao.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sir, it’s getting late——shall we head back and rest?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +475,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -499,6 +486,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -835,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
-  <dimension ref="A1:P53"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:F52"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36:I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -913,7 +903,7 @@
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="34">
@@ -1103,7 +1093,7 @@
     </row>
     <row r="14" spans="1:16" ht="34">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>39</v>
@@ -1130,12 +1120,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="34">
+    <row r="15" spans="1:16" ht="17">
       <c r="A15" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -1158,10 +1148,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
@@ -1178,13 +1168,13 @@
     </row>
     <row r="17" spans="1:12" ht="17">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
@@ -1201,13 +1191,13 @@
     </row>
     <row r="18" spans="1:12" ht="17">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
@@ -1228,7 +1218,7 @@
     </row>
     <row r="19" spans="1:12" ht="34">
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
@@ -1239,13 +1229,13 @@
     </row>
     <row r="20" spans="1:12" ht="17">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
@@ -1254,7 +1244,7 @@
         <v>27</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K20" s="3">
         <v>500</v>
@@ -1265,13 +1255,13 @@
     </row>
     <row r="21" spans="1:12" ht="17">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
@@ -1288,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
@@ -1308,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
@@ -1328,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
@@ -1345,10 +1335,10 @@
     </row>
     <row r="25" spans="1:12" ht="17">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
         <v>40</v>
@@ -1366,7 +1356,7 @@
         <v>500</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="17">
@@ -1374,7 +1364,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1391,13 +1381,13 @@
     </row>
     <row r="27" spans="1:12" ht="17">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
@@ -1411,13 +1401,13 @@
     </row>
     <row r="28" spans="1:12" ht="17">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
@@ -1431,13 +1421,13 @@
     </row>
     <row r="29" spans="1:12" ht="34">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
@@ -1456,10 +1446,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
         <v>18</v>
@@ -1474,18 +1464,18 @@
         <v>0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="17">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
@@ -1508,10 +1498,10 @@
     </row>
     <row r="32" spans="1:12" ht="34">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
         <v>41</v>
@@ -1531,10 +1521,10 @@
     </row>
     <row r="33" spans="1:12" ht="17">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
         <v>41</v>
@@ -1554,13 +1544,13 @@
     </row>
     <row r="34" spans="1:12" ht="17">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
@@ -1581,7 +1571,7 @@
     </row>
     <row r="35" spans="1:12" ht="34">
       <c r="B35" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
@@ -1595,10 +1585,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C36" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
@@ -1606,25 +1596,19 @@
       <c r="E36" t="s">
         <v>27</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="2">
-        <v>-500</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:12" ht="34">
       <c r="A37" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
@@ -1632,19 +1616,25 @@
       <c r="E37" t="s">
         <v>27</v>
       </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
+      <c r="J37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" s="3">
+        <v>500</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="38" spans="1:12" ht="34">
       <c r="A38" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
@@ -1652,16 +1642,19 @@
       <c r="E38" t="s">
         <v>27</v>
       </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
     </row>
     <row r="39" spans="1:12" ht="17">
       <c r="A39" t="s">
         <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
@@ -1669,21 +1662,15 @@
       <c r="E39" t="s">
         <v>27</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="J39" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
     </row>
     <row r="40" spans="1:12" ht="34">
-      <c r="A40" t="s">
-        <v>50</v>
-      </c>
       <c r="B40" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
@@ -1691,45 +1678,42 @@
       <c r="E40" t="s">
         <v>27</v>
       </c>
-      <c r="J40" s="3" t="s">
+    </row>
+    <row r="41" spans="1:12" ht="17">
+      <c r="A41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s">
+        <v>27</v>
+      </c>
+      <c r="J41" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="L40" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="34">
-      <c r="A41" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" t="s">
-        <v>27</v>
-      </c>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
+      <c r="L41" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="42" spans="1:12" ht="17">
       <c r="A42" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D42" t="s">
         <v>18</v>
@@ -1737,15 +1721,19 @@
       <c r="E42" t="s">
         <v>27</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="1:12" ht="34">
+    <row r="43" spans="1:12" ht="17">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
       <c r="B43" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="C43" t="s">
+        <v>44</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
@@ -1753,16 +1741,19 @@
       <c r="E43" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="17">
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="1:12" ht="34">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
@@ -1770,25 +1761,19 @@
       <c r="E44" t="s">
         <v>27</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K44" s="3">
-        <v>500</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="17">
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="1:12" ht="34">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="D45" t="s">
         <v>18</v>
@@ -1800,15 +1785,15 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="1:12" ht="17">
+    <row r="46" spans="1:12" ht="34">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
@@ -1816,19 +1801,15 @@
       <c r="E46" t="s">
         <v>27</v>
       </c>
-      <c r="J46" s="3"/>
+      <c r="J46" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
     <row r="47" spans="1:12" ht="34">
-      <c r="A47" t="s">
-        <v>85</v>
-      </c>
       <c r="B47" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D47" t="s">
         <v>18</v>
@@ -1836,39 +1817,42 @@
       <c r="E47" t="s">
         <v>27</v>
       </c>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="1:12" ht="34">
+    </row>
+    <row r="48" spans="1:12" ht="17">
       <c r="A48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K48" s="3">
+        <v>500</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="17">
+      <c r="A49" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C48" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" t="s">
-        <v>27</v>
-      </c>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="1:12" ht="34">
-      <c r="A49" t="s">
-        <v>50</v>
-      </c>
       <c r="B49" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C49" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D49" t="s">
         <v>18</v>
@@ -1882,71 +1866,12 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="1:12" ht="34">
+    <row r="50" spans="1:12" ht="17">
+      <c r="A50" t="s">
+        <v>77</v>
+      </c>
       <c r="B50" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D50" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="17">
-      <c r="A51" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" t="s">
-        <v>94</v>
-      </c>
-      <c r="D51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" t="s">
-        <v>27</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K51" s="3">
-        <v>500</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="17">
-      <c r="A52" t="s">
-        <v>1</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" t="s">
-        <v>27</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="1:12" ht="17">
-      <c r="A53" t="s">
-        <v>97</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/2_Training_Canteen_Garden.xlsx
+++ b/Assets/StreamingAssets/2_Training_Canteen_Garden.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035F82E1-0277-6541-865A-F3E8607C566A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4443B8E7-9D73-5643-A494-12182ACD6645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="500" windowWidth="27960" windowHeight="15880" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -158,10 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Just then, we heard a clear, low voice reciting poetry.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yao-Shock</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -417,6 +413,10 @@
   </si>
   <si>
     <t>Sir, it’s getting late——shall we head back and rest?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Just then, we heard a clear, low voice reciting poetry.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,7 +475,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -486,9 +486,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -827,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36:I36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -903,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="34">
@@ -965,9 +962,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="17">
+    <row r="7" spans="1:16" ht="34">
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -985,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="17">
@@ -993,10 +990,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
         <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -1013,7 +1010,7 @@
     </row>
     <row r="9" spans="1:16" ht="34">
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -1034,7 +1031,7 @@
     </row>
     <row r="10" spans="1:16" ht="34">
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -1045,7 +1042,7 @@
     </row>
     <row r="11" spans="1:16" ht="34">
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -1056,7 +1053,7 @@
     </row>
     <row r="12" spans="1:16" ht="34">
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -1070,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -1093,13 +1090,13 @@
     </row>
     <row r="14" spans="1:16" ht="34">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
@@ -1117,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="17">
@@ -1125,7 +1122,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -1148,10 +1145,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
@@ -1168,13 +1165,13 @@
     </row>
     <row r="17" spans="1:12" ht="17">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
         <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
@@ -1191,13 +1188,13 @@
     </row>
     <row r="18" spans="1:12" ht="17">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
@@ -1218,7 +1215,7 @@
     </row>
     <row r="19" spans="1:12" ht="34">
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
@@ -1229,39 +1226,39 @@
     </row>
     <row r="20" spans="1:12" ht="17">
       <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="K20" s="3">
         <v>500</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="17">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
@@ -1278,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
@@ -1298,7 +1295,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
@@ -1318,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
@@ -1335,13 +1332,13 @@
     </row>
     <row r="25" spans="1:12" ht="17">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
@@ -1356,7 +1353,7 @@
         <v>500</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="17">
@@ -1364,10 +1361,10 @@
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
         <v>18</v>
@@ -1381,13 +1378,13 @@
     </row>
     <row r="27" spans="1:12" ht="17">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
@@ -1401,13 +1398,13 @@
     </row>
     <row r="28" spans="1:12" ht="17">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
@@ -1421,13 +1418,13 @@
     </row>
     <row r="29" spans="1:12" ht="34">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
@@ -1446,10 +1443,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
         <v>18</v>
@@ -1464,18 +1461,18 @@
         <v>0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="17">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
@@ -1493,18 +1490,18 @@
         <v>0</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="34">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32" t="s">
         <v>18</v>
@@ -1521,13 +1518,13 @@
     </row>
     <row r="33" spans="1:12" ht="17">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
@@ -1544,13 +1541,13 @@
     </row>
     <row r="34" spans="1:12" ht="17">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" t="s">
         <v>59</v>
-      </c>
-      <c r="C34" t="s">
-        <v>60</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
@@ -1571,7 +1568,7 @@
     </row>
     <row r="35" spans="1:12" ht="34">
       <c r="B35" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
@@ -1585,10 +1582,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
@@ -1596,19 +1593,16 @@
       <c r="E36" t="s">
         <v>27</v>
       </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:12" ht="34">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
@@ -1623,18 +1617,18 @@
         <v>500</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="34">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
@@ -1651,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s">
         <v>15</v>
@@ -1670,7 +1664,7 @@
     </row>
     <row r="40" spans="1:12" ht="34">
       <c r="B40" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
@@ -1681,13 +1675,13 @@
     </row>
     <row r="41" spans="1:12" ht="17">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D41" t="s">
         <v>18</v>
@@ -1702,18 +1696,18 @@
         <v>500</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="17">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D42" t="s">
         <v>18</v>
@@ -1727,13 +1721,13 @@
     </row>
     <row r="43" spans="1:12" ht="17">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
@@ -1747,13 +1741,13 @@
     </row>
     <row r="44" spans="1:12" ht="34">
       <c r="A44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" t="s">
         <v>69</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" t="s">
-        <v>70</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
@@ -1770,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C45" t="s">
         <v>15</v>
@@ -1787,13 +1781,13 @@
     </row>
     <row r="46" spans="1:12" ht="34">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
@@ -1809,7 +1803,7 @@
     </row>
     <row r="47" spans="1:12" ht="34">
       <c r="B47" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D47" t="s">
         <v>18</v>
@@ -1823,10 +1817,10 @@
         <v>2</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D48" t="s">
         <v>18</v>
@@ -1841,7 +1835,7 @@
         <v>500</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="17">
@@ -1849,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C49" t="s">
         <v>16</v>
@@ -1868,10 +1862,10 @@
     </row>
     <row r="50" spans="1:12" ht="17">
       <c r="A50" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/2_Training_Canteen_Garden.xlsx
+++ b/Assets/StreamingAssets/2_Training_Canteen_Garden.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4443B8E7-9D73-5643-A494-12182ACD6645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4439D95-46A2-0B46-8DE3-8250685C2D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="500" windowWidth="27960" windowHeight="15880" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -364,10 +364,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I am Fu—just a humble scholar, invited here by the young master to exchange poems and ideas.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>I’ve been waiting for you, Fu. There are some essays I wanted to discuss.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -418,6 +414,9 @@
   <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(Just then, we heard a clear, low voice reciting poetry.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am Fu—just a humble scholar, invited here by the young Lord to exchange poems and ideas.</t>
   </si>
 </sst>
 </file>
@@ -964,7 +963,7 @@
     </row>
     <row r="7" spans="1:16" ht="34">
       <c r="B7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -1145,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -1191,7 +1190,7 @@
         <v>72</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
         <v>44</v>
@@ -1275,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
@@ -1315,7 +1314,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
@@ -1335,7 +1334,7 @@
         <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
         <v>39</v>
@@ -1381,7 +1380,7 @@
         <v>46</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
         <v>44</v>
@@ -1443,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
         <v>54</v>
@@ -1498,7 +1497,7 @@
         <v>46</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
         <v>40</v>
@@ -1582,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C36" t="s">
         <v>55</v>
@@ -1744,7 +1743,7 @@
         <v>68</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C44" t="s">
         <v>69</v>
@@ -1764,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s">
         <v>15</v>
@@ -1784,7 +1783,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s">
         <v>43</v>
@@ -1817,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s">
         <v>73</v>
